--- a/Analyzed/try8/data_2015.xlsx
+++ b/Analyzed/try8/data_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>49.36</v>
       </c>
       <c r="J2">
-        <v>553.8000000000001</v>
+        <v>764.10185</v>
       </c>
       <c r="K2">
         <v>2202.148</v>
       </c>
       <c r="L2">
-        <v>556.5</v>
+        <v>875.1435</v>
       </c>
       <c r="M2">
         <v>68.81216289787653</v>
@@ -558,49 +583,64 @@
         <v>-171.41</v>
       </c>
       <c r="P2">
-        <v>443.2700225697526</v>
+        <v>579.5883179847165</v>
       </c>
       <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
       <c r="U2">
         <v>2</v>
       </c>
       <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
         <v>5</v>
-      </c>
-      <c r="W2">
-        <v>5</v>
-      </c>
-      <c r="X2">
-        <v>5</v>
-      </c>
-      <c r="Y2">
-        <v>4</v>
       </c>
       <c r="Z2">
         <v>5</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
+        <v>2</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2">
         <v>6</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -634,13 +674,13 @@
         <v>60.77999999999999</v>
       </c>
       <c r="J3">
-        <v>604</v>
+        <v>1098.22996</v>
       </c>
       <c r="K3">
         <v>1537.331</v>
       </c>
       <c r="L3">
-        <v>628.53</v>
+        <v>1218.3339</v>
       </c>
       <c r="M3">
         <v>64.41599617664586</v>
@@ -652,49 +692,64 @@
         <v>-116.56</v>
       </c>
       <c r="P3">
-        <v>564.9972297587386</v>
+        <v>743.7487960066316</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>6</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>9</v>
       </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
       <c r="Z3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
       <c r="AD3">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>59.56</v>
       </c>
       <c r="J4">
-        <v>600.4</v>
+        <v>1080.53632</v>
       </c>
       <c r="K4">
         <v>1770.757</v>
       </c>
       <c r="L4">
-        <v>647.85</v>
+        <v>1220.856</v>
       </c>
       <c r="M4">
         <v>56.56335762782581</v>
@@ -746,7 +801,7 @@
         <v>-197.57</v>
       </c>
       <c r="P4">
-        <v>558.3590305254526</v>
+        <v>733.8872380416722</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -755,28 +810,28 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>3</v>
       </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
         <v>8</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -788,6 +843,21 @@
         <v>1</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>53.98999999999999</v>
       </c>
       <c r="J5">
-        <v>609.2</v>
+        <v>1032.44396</v>
       </c>
       <c r="K5">
         <v>2021.112</v>
       </c>
       <c r="L5">
-        <v>580.23</v>
+        <v>1058.7094</v>
       </c>
       <c r="M5">
         <v>63.8686030846979</v>
@@ -840,34 +910,34 @@
         <v>-142.08</v>
       </c>
       <c r="P5">
-        <v>503.3238191468002</v>
+        <v>661.9366554375118</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -882,7 +952,22 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>40.83</v>
       </c>
       <c r="J6">
-        <v>503.8</v>
+        <v>613.32745</v>
       </c>
       <c r="K6">
         <v>2029.284</v>
       </c>
       <c r="L6">
-        <v>495.39</v>
+        <v>647.9669</v>
       </c>
       <c r="M6">
         <v>64.17576402974095</v>
@@ -934,49 +1019,64 @@
         <v>-129.74</v>
       </c>
       <c r="P6">
-        <v>469.5087430244677</v>
+        <v>614.7063575494899</v>
       </c>
       <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
         <v>3</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>3</v>
       </c>
-      <c r="V6">
-        <v>3</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>2</v>
       </c>
       <c r="AD6">
         <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>38.59</v>
       </c>
       <c r="J7">
-        <v>523.2</v>
+        <v>640.1460400000001</v>
       </c>
       <c r="K7">
         <v>1510.011</v>
       </c>
       <c r="L7">
-        <v>485.1</v>
+        <v>619.8192</v>
       </c>
       <c r="M7">
         <v>85.09333264417405</v>
@@ -1028,49 +1128,64 @@
         <v>-147.96</v>
       </c>
       <c r="P7">
-        <v>462.7299142987307</v>
+        <v>604.824377264939</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>5</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
       <c r="Z7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>4</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>32.81</v>
       </c>
       <c r="J8">
-        <v>479.4</v>
+        <v>509.2661900000001</v>
       </c>
       <c r="K8">
         <v>1147.507</v>
       </c>
       <c r="L8">
-        <v>473.76</v>
+        <v>536.9756</v>
       </c>
       <c r="M8">
         <v>74.29503593650675</v>
@@ -1122,49 +1237,64 @@
         <v>-135.22</v>
       </c>
       <c r="P8">
-        <v>403.6956976743545</v>
+        <v>528.949996030591</v>
       </c>
       <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>9</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>3</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
       <c r="U8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8">
         <v>2</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>41.89</v>
       </c>
       <c r="J9">
-        <v>545.2</v>
+        <v>876.7978400000001</v>
       </c>
       <c r="K9">
         <v>779.7099999999999</v>
       </c>
       <c r="L9">
-        <v>528.15</v>
+        <v>888.64265</v>
       </c>
       <c r="M9">
         <v>64.42529549090339</v>
@@ -1216,48 +1346,63 @@
         <v>-161.64</v>
       </c>
       <c r="P9">
-        <v>498.9454910027218</v>
+        <v>656.4100649684381</v>
       </c>
       <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>4</v>
+      </c>
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
+      <c r="AD9">
+        <v>4</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+      <c r="AG9">
         <v>3</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>4</v>
-      </c>
-      <c r="Y9">
-        <v>4</v>
-      </c>
-      <c r="Z9">
-        <v>3</v>
-      </c>
-      <c r="AA9">
-        <v>4</v>
-      </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
-      <c r="AC9">
-        <v>4</v>
-      </c>
-      <c r="AD9">
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
         <v>4</v>
       </c>
     </row>
@@ -1292,13 +1437,13 @@
         <v>38.16</v>
       </c>
       <c r="J10">
-        <v>495.6</v>
+        <v>502.51106</v>
       </c>
       <c r="K10">
         <v>2048.818</v>
       </c>
       <c r="L10">
-        <v>499.8</v>
+        <v>542.59345</v>
       </c>
       <c r="M10">
         <v>78.4957072597136</v>
@@ -1310,49 +1455,64 @@
         <v>-103.06</v>
       </c>
       <c r="P10">
-        <v>496.1872131981646</v>
+        <v>652.1153079380725</v>
       </c>
       <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
         <v>7</v>
       </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>7</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>8</v>
       </c>
-      <c r="X10">
-        <v>4</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
       <c r="AA10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10">
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1386,13 +1546,13 @@
         <v>26.89</v>
       </c>
       <c r="J11">
-        <v>503.2</v>
+        <v>603.68434</v>
       </c>
       <c r="K11">
         <v>1733.243</v>
       </c>
       <c r="L11">
-        <v>517.4399999999999</v>
+        <v>659.22675</v>
       </c>
       <c r="M11">
         <v>76.27694094178631</v>
@@ -1404,35 +1564,35 @@
         <v>-176.3</v>
       </c>
       <c r="P11">
-        <v>278.3176640210622</v>
+        <v>361.9497129570268</v>
       </c>
       <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
       <c r="T11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
         <v>7</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>3</v>
       </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>1</v>
       </c>
@@ -1440,13 +1600,28 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD11">
         <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
